--- a/data/trans_orig/iP30KDB3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD9B4FD-37C7-4643-A6EB-0784C1F249FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6034CECC-B9E9-42FC-A814-2E122BAFD010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B30DB41-0F46-4D7B-B5BC-1661DD8FD5C9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67BB4E72-179D-4DB8-B169-AB90447052AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>Menores según si se utiliza aceite de oliva en casa en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,28 +65,154 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,259 +221,124 @@
     <t>0%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,8 +753,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2920F2ED-BF8C-4615-B6BB-6A46510E7A70}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3920505C-9222-41B2-A07E-C3E9BF09E43F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -880,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="D4" s="7">
-        <v>11397</v>
+        <v>111982</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,85 +886,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I4" s="7">
-        <v>15999</v>
+        <v>128960</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="N4" s="7">
-        <v>27395</v>
+        <v>240942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7855</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -982,153 +973,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>107649</v>
+        <v>183235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="I7" s="7">
-        <v>99348</v>
+        <v>242652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>303</v>
+        <v>581</v>
       </c>
       <c r="N7" s="7">
-        <v>206997</v>
+        <v>425887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>4799</v>
+        <v>2879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>2287</v>
+        <v>4868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>7086</v>
+        <v>7747</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1137,153 +1128,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7">
-        <v>238032</v>
+        <v>188249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="I10" s="7">
-        <v>184994</v>
+        <v>178754</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="N10" s="7">
-        <v>423026</v>
+        <v>367004</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4881</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2923</v>
+        <v>4335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>7804</v>
+        <v>4335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,153 +1283,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>167252</v>
+        <v>162794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I13" s="7">
-        <v>166568</v>
+        <v>172479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="N13" s="7">
-        <v>333820</v>
+        <v>335273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3867</v>
+        <v>1725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>3867</v>
+        <v>6555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,153 +1438,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>224</v>
+        <v>904</v>
       </c>
       <c r="D16" s="7">
-        <v>166920</v>
+        <v>646262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>232</v>
+        <v>918</v>
       </c>
       <c r="I16" s="7">
-        <v>166810</v>
+        <v>722845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>456</v>
+        <v>1822</v>
       </c>
       <c r="N16" s="7">
-        <v>333731</v>
+        <v>1369107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>4536</v>
+        <v>6872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>1680</v>
+        <v>21888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>6216</v>
+        <v>28760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,217 +1593,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>918</v>
-      </c>
-      <c r="D19" s="7">
-        <v>691250</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="7">
-        <v>904</v>
-      </c>
-      <c r="I19" s="7">
-        <v>633719</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1822</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1324970</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>22</v>
-      </c>
-      <c r="D20" s="7">
-        <v>18083</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6890</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="7">
-        <v>33</v>
-      </c>
-      <c r="N20" s="7">
-        <v>24972</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="A19" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
